--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ren1-Atp6ap2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ren1</t>
+  </si>
+  <si>
+    <t>Atp6ap2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Ren1</t>
-  </si>
-  <si>
-    <t>Atp6ap2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H2">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I2">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J2">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.097612999999999</v>
+        <v>10.306905</v>
       </c>
       <c r="N2">
-        <v>16.195226</v>
+        <v>20.61381</v>
       </c>
       <c r="O2">
-        <v>0.0485254035771833</v>
+        <v>0.04169074224953703</v>
       </c>
       <c r="P2">
-        <v>0.03365583562661904</v>
+        <v>0.0286470056427464</v>
       </c>
       <c r="Q2">
-        <v>3.01708962767</v>
+        <v>5.0646739737825</v>
       </c>
       <c r="R2">
-        <v>12.06835851068</v>
+        <v>20.25869589513</v>
       </c>
       <c r="S2">
-        <v>0.02769304779759463</v>
+        <v>0.03326339931886445</v>
       </c>
       <c r="T2">
-        <v>0.01581282078761538</v>
+        <v>0.02262535916927353</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H3">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I3">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J3">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>34.587742</v>
       </c>
       <c r="O3">
-        <v>0.06908966627463728</v>
+        <v>0.04663503533846117</v>
       </c>
       <c r="P3">
-        <v>0.07187793238871183</v>
+        <v>0.04806657479834425</v>
       </c>
       <c r="Q3">
-        <v>4.295682263926667</v>
+        <v>5.665316494761</v>
       </c>
       <c r="R3">
-        <v>25.77409358356</v>
+        <v>33.991898968566</v>
       </c>
       <c r="S3">
-        <v>0.03942890299552355</v>
+        <v>0.03720825581439043</v>
       </c>
       <c r="T3">
-        <v>0.03377104868399351</v>
+        <v>0.03796290378169621</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H4">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I4">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J4">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.34834166666667</v>
+        <v>65.286547</v>
       </c>
       <c r="N4">
-        <v>196.045025</v>
+        <v>195.859641</v>
       </c>
       <c r="O4">
-        <v>0.391603630906375</v>
+        <v>0.2640797216370273</v>
       </c>
       <c r="P4">
-        <v>0.4074076605548093</v>
+        <v>0.2721860850038534</v>
       </c>
       <c r="Q4">
-        <v>24.34813862158334</v>
+        <v>32.0809278274155</v>
       </c>
       <c r="R4">
-        <v>146.0888317295</v>
+        <v>192.485566964493</v>
       </c>
       <c r="S4">
-        <v>0.2234849639354888</v>
+        <v>0.2106987968755715</v>
       </c>
       <c r="T4">
-        <v>0.1914159670651448</v>
+        <v>0.2149721339427293</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H5">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I5">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J5">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.3223215</v>
+        <v>11.7817895</v>
       </c>
       <c r="N5">
-        <v>22.644643</v>
+        <v>23.563579</v>
       </c>
       <c r="O5">
-        <v>0.06784965152300061</v>
+        <v>0.04765655153344304</v>
       </c>
       <c r="P5">
-        <v>0.04705858273490408</v>
+        <v>0.03274629874711665</v>
       </c>
       <c r="Q5">
-        <v>4.218583767685001</v>
+        <v>5.78941230614175</v>
       </c>
       <c r="R5">
-        <v>16.87433507074</v>
+        <v>23.157649224567</v>
       </c>
       <c r="S5">
-        <v>0.03872123679894722</v>
+        <v>0.03802328330660895</v>
       </c>
       <c r="T5">
-        <v>0.0221099527452429</v>
+        <v>0.02586297429677246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H6">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I6">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J6">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.115125333333333</v>
+        <v>87.427925</v>
       </c>
       <c r="N6">
-        <v>24.345376</v>
+        <v>262.283775</v>
       </c>
       <c r="O6">
-        <v>0.04863034722447519</v>
+        <v>0.3536401166583814</v>
       </c>
       <c r="P6">
-        <v>0.0505929323199464</v>
+        <v>0.3644956843216187</v>
       </c>
       <c r="Q6">
-        <v>3.023614547946667</v>
+        <v>42.9609020680125</v>
       </c>
       <c r="R6">
-        <v>18.14168728768</v>
+        <v>257.765412408075</v>
       </c>
       <c r="S6">
-        <v>0.0277529382719909</v>
+        <v>0.2821555045762751</v>
       </c>
       <c r="T6">
-        <v>0.02377052766630812</v>
+        <v>0.2878781076204702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.37259</v>
+        <v>0.4913865</v>
       </c>
       <c r="H7">
-        <v>0.7451800000000001</v>
+        <v>0.982773</v>
       </c>
       <c r="I7">
-        <v>0.5706917564023296</v>
+        <v>0.7978605686549953</v>
       </c>
       <c r="J7">
-        <v>0.4698388999472268</v>
+        <v>0.789798398179267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.46103799999999</v>
+        <v>60.89045733333333</v>
       </c>
       <c r="N7">
-        <v>187.383114</v>
+        <v>182.671372</v>
       </c>
       <c r="O7">
-        <v>0.3743013004943287</v>
+        <v>0.24629783258315</v>
       </c>
       <c r="P7">
-        <v>0.3894070563750094</v>
+        <v>0.2538583514863204</v>
       </c>
       <c r="Q7">
-        <v>23.27235814842</v>
+        <v>29.920748712426</v>
       </c>
       <c r="R7">
-        <v>139.63414889052</v>
+        <v>179.524492274556</v>
       </c>
       <c r="S7">
-        <v>0.2136106666027846</v>
+        <v>0.1965113287632849</v>
       </c>
       <c r="T7">
-        <v>0.1829585829989221</v>
+        <v>0.2004969193683252</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.037721</v>
       </c>
       <c r="I8">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J8">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.097612999999999</v>
+        <v>10.306905</v>
       </c>
       <c r="N8">
-        <v>16.195226</v>
+        <v>20.61381</v>
       </c>
       <c r="O8">
-        <v>0.0485254035771833</v>
+        <v>0.04169074224953703</v>
       </c>
       <c r="P8">
-        <v>0.03365583562661904</v>
+        <v>0.0286470056427464</v>
       </c>
       <c r="Q8">
-        <v>0.1018166866576666</v>
+        <v>0.129595587835</v>
       </c>
       <c r="R8">
-        <v>0.6109001199459999</v>
+        <v>0.7775735270099999</v>
       </c>
       <c r="S8">
-        <v>0.0009345477656164209</v>
+        <v>0.0008511485261309146</v>
       </c>
       <c r="T8">
-        <v>0.0008004447421155152</v>
+        <v>0.0008684112945961752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.037721</v>
       </c>
       <c r="I9">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J9">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>34.587742</v>
       </c>
       <c r="O9">
-        <v>0.06908966627463728</v>
+        <v>0.04663503533846117</v>
       </c>
       <c r="P9">
-        <v>0.07187793238871183</v>
+        <v>0.04806657479834425</v>
       </c>
       <c r="Q9">
         <v>0.1449649128868889</v>
@@ -1013,10 +1013,10 @@
         <v>1.304684215982</v>
       </c>
       <c r="S9">
-        <v>0.001330593637236769</v>
+        <v>0.0009520900673058928</v>
       </c>
       <c r="T9">
-        <v>0.001709489958679674</v>
+        <v>0.001457100157970724</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.037721</v>
       </c>
       <c r="I10">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J10">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.34834166666667</v>
+        <v>65.286547</v>
       </c>
       <c r="N10">
-        <v>196.045025</v>
+        <v>195.859641</v>
       </c>
       <c r="O10">
-        <v>0.391603630906375</v>
+        <v>0.2640797216370273</v>
       </c>
       <c r="P10">
-        <v>0.4074076605548093</v>
+        <v>0.2721860850038534</v>
       </c>
       <c r="Q10">
-        <v>0.821668265336111</v>
+        <v>0.8208912797956666</v>
       </c>
       <c r="R10">
-        <v>7.395014388025</v>
+        <v>7.388021518160999</v>
       </c>
       <c r="S10">
-        <v>0.007541870263659402</v>
+        <v>0.005391390359688644</v>
       </c>
       <c r="T10">
-        <v>0.009689473273121026</v>
+        <v>0.008251105661687581</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.037721</v>
       </c>
       <c r="I11">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J11">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.3223215</v>
+        <v>11.7817895</v>
       </c>
       <c r="N11">
-        <v>22.644643</v>
+        <v>23.563579</v>
       </c>
       <c r="O11">
-        <v>0.06784965152300061</v>
+        <v>0.04765655153344304</v>
       </c>
       <c r="P11">
-        <v>0.04705858273490408</v>
+        <v>0.03274629874711665</v>
       </c>
       <c r="Q11">
-        <v>0.1423630964338333</v>
+        <v>0.1481402939098333</v>
       </c>
       <c r="R11">
-        <v>0.8541785786030001</v>
+        <v>0.8888417634589998</v>
       </c>
       <c r="S11">
-        <v>0.001306712269333662</v>
+        <v>0.0009729451050640017</v>
       </c>
       <c r="T11">
-        <v>0.001119205463785001</v>
+        <v>0.0009926781194116588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.037721</v>
       </c>
       <c r="I12">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J12">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.115125333333333</v>
+        <v>87.427925</v>
       </c>
       <c r="N12">
-        <v>24.345376</v>
+        <v>262.283775</v>
       </c>
       <c r="O12">
-        <v>0.04863034722447519</v>
+        <v>0.3536401166583814</v>
       </c>
       <c r="P12">
-        <v>0.0505929323199464</v>
+        <v>0.3644956843216187</v>
       </c>
       <c r="Q12">
-        <v>0.1020368808995555</v>
+        <v>1.099289586308333</v>
       </c>
       <c r="R12">
-        <v>0.9183319280959998</v>
+        <v>9.893606276774999</v>
       </c>
       <c r="S12">
-        <v>0.0009365688688708488</v>
+        <v>0.007219834616350314</v>
       </c>
       <c r="T12">
-        <v>0.001203263740439637</v>
+        <v>0.01104939807824569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.037721</v>
       </c>
       <c r="I13">
-        <v>0.01925893855019572</v>
+        <v>0.02041576811073366</v>
       </c>
       <c r="J13">
-        <v>0.02378323780148332</v>
+        <v>0.03031420824312443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.46103799999999</v>
+        <v>60.89045733333333</v>
       </c>
       <c r="N13">
-        <v>187.383114</v>
+        <v>182.671372</v>
       </c>
       <c r="O13">
-        <v>0.3743013004943287</v>
+        <v>0.24629783258315</v>
       </c>
       <c r="P13">
-        <v>0.3894070563750094</v>
+        <v>0.2538583514863204</v>
       </c>
       <c r="Q13">
-        <v>0.7853642714659999</v>
+        <v>0.7656163136902221</v>
       </c>
       <c r="R13">
-        <v>7.068278443193999</v>
+        <v>6.890546823212</v>
       </c>
       <c r="S13">
-        <v>0.00720864574547862</v>
+        <v>0.005028359436193892</v>
       </c>
       <c r="T13">
-        <v>0.009261360623342471</v>
+        <v>0.007695514931212594</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H14">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I14">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J14">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.097612999999999</v>
+        <v>10.306905</v>
       </c>
       <c r="N14">
-        <v>16.195226</v>
+        <v>20.61381</v>
       </c>
       <c r="O14">
-        <v>0.0485254035771833</v>
+        <v>0.04169074224953703</v>
       </c>
       <c r="P14">
-        <v>0.03365583562661904</v>
+        <v>0.0286470056427464</v>
       </c>
       <c r="Q14">
-        <v>2.167817374638666</v>
+        <v>1.1535488076</v>
       </c>
       <c r="R14">
-        <v>13.006904247832</v>
+        <v>4.6141952304</v>
       </c>
       <c r="S14">
-        <v>0.01989780801397225</v>
+        <v>0.00757619440454166</v>
       </c>
       <c r="T14">
-        <v>0.01704257009688815</v>
+        <v>0.005153235178876696</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H15">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I15">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J15">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>34.587742</v>
       </c>
       <c r="O15">
-        <v>0.06908966627463728</v>
+        <v>0.04663503533846117</v>
       </c>
       <c r="P15">
-        <v>0.07187793238871183</v>
+        <v>0.04806657479834425</v>
       </c>
       <c r="Q15">
-        <v>3.086502489771555</v>
+        <v>1.290353361546667</v>
       </c>
       <c r="R15">
-        <v>27.778522407944</v>
+        <v>7.74212016928</v>
       </c>
       <c r="S15">
-        <v>0.02833016964187696</v>
+        <v>0.008474689456764843</v>
       </c>
       <c r="T15">
-        <v>0.03639739374603864</v>
+        <v>0.008646570858677314</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H16">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I16">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J16">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>65.34834166666667</v>
+        <v>65.286547</v>
       </c>
       <c r="N16">
-        <v>196.045025</v>
+        <v>195.859641</v>
       </c>
       <c r="O16">
-        <v>0.391603630906375</v>
+        <v>0.2640797216370273</v>
       </c>
       <c r="P16">
-        <v>0.4074076605548093</v>
+        <v>0.2721860850038534</v>
       </c>
       <c r="Q16">
-        <v>17.49444811314444</v>
+        <v>7.306870340240001</v>
       </c>
       <c r="R16">
-        <v>157.4500330183</v>
+        <v>43.84122204144</v>
       </c>
       <c r="S16">
-        <v>0.1605767967072269</v>
+        <v>0.04798953440176717</v>
       </c>
       <c r="T16">
-        <v>0.2063022202165435</v>
+        <v>0.04896284539943661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H17">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I17">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J17">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.3223215</v>
+        <v>11.7817895</v>
       </c>
       <c r="N17">
-        <v>22.644643</v>
+        <v>23.563579</v>
       </c>
       <c r="O17">
-        <v>0.06784965152300061</v>
+        <v>0.04765655153344304</v>
       </c>
       <c r="P17">
-        <v>0.04705858273490408</v>
+        <v>0.03274629874711665</v>
       </c>
       <c r="Q17">
-        <v>3.031106236979333</v>
+        <v>1.31861788084</v>
       </c>
       <c r="R17">
-        <v>18.186637421876</v>
+        <v>5.27447152336</v>
       </c>
       <c r="S17">
-        <v>0.02782170245471973</v>
+        <v>0.008660323121770083</v>
       </c>
       <c r="T17">
-        <v>0.02382942452587618</v>
+        <v>0.005890646330932523</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H18">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I18">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J18">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.115125333333333</v>
+        <v>87.427925</v>
       </c>
       <c r="N18">
-        <v>24.345376</v>
+        <v>262.283775</v>
       </c>
       <c r="O18">
-        <v>0.04863034722447519</v>
+        <v>0.3536401166583814</v>
       </c>
       <c r="P18">
-        <v>0.0505929323199464</v>
+        <v>0.3644956843216187</v>
       </c>
       <c r="Q18">
-        <v>2.172505613070222</v>
+        <v>9.784933366000001</v>
       </c>
       <c r="R18">
-        <v>19.552550517632</v>
+        <v>58.709600196</v>
       </c>
       <c r="S18">
-        <v>0.01994084008361344</v>
+        <v>0.064264777465756</v>
       </c>
       <c r="T18">
-        <v>0.02561914091319865</v>
+        <v>0.0655681786229028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.2677106666666667</v>
+        <v>0.11192</v>
       </c>
       <c r="H19">
-        <v>0.803132</v>
+        <v>0.22384</v>
       </c>
       <c r="I19">
-        <v>0.4100493050474747</v>
+        <v>0.181723663234271</v>
       </c>
       <c r="J19">
-        <v>0.5063778622512898</v>
+        <v>0.1798873935776086</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.46103799999999</v>
+        <v>60.89045733333333</v>
       </c>
       <c r="N19">
-        <v>187.383114</v>
+        <v>182.671372</v>
       </c>
       <c r="O19">
-        <v>0.3743013004943287</v>
+        <v>0.24629783258315</v>
       </c>
       <c r="P19">
-        <v>0.3894070563750094</v>
+        <v>0.2538583514863204</v>
       </c>
       <c r="Q19">
-        <v>16.721486123672</v>
+        <v>6.814859984746667</v>
       </c>
       <c r="R19">
-        <v>150.493375113048</v>
+        <v>40.88915990848</v>
       </c>
       <c r="S19">
-        <v>0.1534819881460655</v>
+        <v>0.04475814438367121</v>
       </c>
       <c r="T19">
-        <v>0.1971871127527447</v>
+        <v>0.04566591718678262</v>
       </c>
     </row>
   </sheetData>
